--- a/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
+++ b/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.050953</v>
+        <v>0.058383</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"userId":"ce724890-7b46-4393-97f1-961f4cf9f89e","phoneNumber":"13722207503","children":[{"studentId":"47d99ac9-7c7f-4adf-814a-4dd43ea58ca9","phoneNumber":"13722207503","name":"学生","grade":"1","gender":"1"}]}}</t>
+          <t>{"code":0,"message":"成功","data":{"userId":"0718163c-4ac8-4f58-a5c9-3a29ecd63eb5","phoneNumber":"13748889785","children":[{"studentId":"ea75f740-bb08-4b32-9bb2-e348bcc552a3","phoneNumber":"13748889785","name":"学生","grade":"1","gender":"1"}]}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'userId': 'ce724890-7b46-4393-97f1-961f4cf9f89e', 'phoneNumber': '13722207503', 'children': [{'studentId': '47d99ac9-7c7f-4adf-814a-4dd43ea58ca9', 'phoneNumber': '13722207503', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
+          <t>{'userId': '0718163c-4ac8-4f58-a5c9-3a29ecd63eb5', 'phoneNumber': '13748889785', 'children': [{'studentId': 'ea75f740-bb08-4b32-9bb2-e348bcc552a3', 'phoneNumber': '13748889785', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
         </is>
       </c>
     </row>

--- a/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
+++ b/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.058383</v>
+        <v>0.07030400000000001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"userId":"0718163c-4ac8-4f58-a5c9-3a29ecd63eb5","phoneNumber":"13748889785","children":[{"studentId":"ea75f740-bb08-4b32-9bb2-e348bcc552a3","phoneNumber":"13748889785","name":"学生","grade":"1","gender":"1"}]}}</t>
+          <t>{"code":0,"message":"成功","data":{"userId":"f8b6ce6f-ad43-4cf1-af3a-a9e6aff17e17","phoneNumber":"13381770704","children":[{"studentId":"eb477c79-8e36-4bd3-a548-6ad4db8494b1","phoneNumber":"13381770704","name":"学生","grade":"1","gender":"1"}]}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'userId': '0718163c-4ac8-4f58-a5c9-3a29ecd63eb5', 'phoneNumber': '13748889785', 'children': [{'studentId': 'ea75f740-bb08-4b32-9bb2-e348bcc552a3', 'phoneNumber': '13748889785', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
+          <t>{'userId': 'f8b6ce6f-ad43-4cf1-af3a-a9e6aff17e17', 'phoneNumber': '13381770704', 'children': [{'studentId': 'eb477c79-8e36-4bd3-a548-6ad4db8494b1', 'phoneNumber': '13381770704', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
         </is>
       </c>
     </row>

--- a/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
+++ b/AI_result/8_获取当前用户信息家长_responsexlsx.xlsx
@@ -476,11 +476,11 @@
         <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07030400000000001</v>
+        <v>0.051809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{"code":0,"message":"成功","data":{"userId":"f8b6ce6f-ad43-4cf1-af3a-a9e6aff17e17","phoneNumber":"13381770704","children":[{"studentId":"eb477c79-8e36-4bd3-a548-6ad4db8494b1","phoneNumber":"13381770704","name":"学生","grade":"1","gender":"1"}]}}</t>
+          <t>{"code":0,"message":"成功","data":{"userId":"a15714af-ee26-42e1-b408-3d9e760679e1","phoneNumber":"15980488692","children":[{"studentId":"35584c3e-68da-4c6d-9800-c1968ecb262e","phoneNumber":"15980488692","name":"学生","grade":"1","gender":"1"}]}}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'userId': 'f8b6ce6f-ad43-4cf1-af3a-a9e6aff17e17', 'phoneNumber': '13381770704', 'children': [{'studentId': 'eb477c79-8e36-4bd3-a548-6ad4db8494b1', 'phoneNumber': '13381770704', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
+          <t>{'userId': 'a15714af-ee26-42e1-b408-3d9e760679e1', 'phoneNumber': '15980488692', 'children': [{'studentId': '35584c3e-68da-4c6d-9800-c1968ecb262e', 'phoneNumber': '15980488692', 'name': '学生', 'grade': '1', 'gender': '1'}]}</t>
         </is>
       </c>
     </row>
